--- a/src/main/resources/template/excel/export/SupplierStockReport.xlsx
+++ b/src/main/resources/template/excel/export/SupplierStockReport.xlsx
@@ -65,10 +65,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>供应商编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -291,6 +287,13 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(N3:N3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编码</t>
+    <rPh sb="3" eb="4">
+      <t>bian'm</t>
+    </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -422,14 +425,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -804,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -824,114 +827,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -943,14 +946,14 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
